--- a/Results/LotScreening.xlsx
+++ b/Results/LotScreening.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,96 +561,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100% charge ACIR</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100% ACIR(mΩ)</t>
+          <t>Weight(g)</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1040</v>
       </c>
       <c r="D3" t="n">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>9.961324683918473</v>
+        <v>70.04653117279139</v>
       </c>
       <c r="G3" t="n">
-        <v>11.45355993146615</v>
+        <v>71.0496438272086</v>
       </c>
       <c r="H3" t="n">
-        <v>10.69680623174294</v>
+        <v>70.54808749999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2313907919051608</v>
+        <v>0.1671854424028669</v>
       </c>
       <c r="J3" t="n">
-        <v>1.388344751430965</v>
+        <v>1.003112654417201</v>
       </c>
       <c r="K3" t="n">
-        <v>12.97905862135774</v>
+        <v>1.421884972313674</v>
       </c>
       <c r="L3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0027, 0078, 0092, 0098, 0099, 0107, 0108, 0109, 0119, 0545, 0555, 0579, 0596</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0% charge ACIR</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0% ACIR(mΩ)</t>
+          <t>Height(mm)</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1040</v>
       </c>
       <c r="D4" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70.2311408635473</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70.59030529029886</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70.40962584378013</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04999748139641888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2999848883785133</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4260566432267349</v>
+      </c>
+      <c r="L4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>10.27514014885647</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11.71784062037429</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.99494219653179</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2380636937564468</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.428382162538681</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.99126577481458</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15</v>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -658,50 +654,50 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0827, 0847</t>
+          <t>0139, 0212, 0314</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>50% charge ACIR</t>
+          <t>Diameter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>50% ACIR(mΩ)</t>
+          <t>Diameter(mm)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="D5" t="n">
-        <v>1035</v>
+        <v>1014</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>9.992757317111218</v>
+        <v>21.14316281178377</v>
       </c>
       <c r="G5" t="n">
-        <v>11.40470037519647</v>
+        <v>21.28280618046428</v>
       </c>
       <c r="H5" t="n">
-        <v>10.69489661835749</v>
+        <v>21.21183431952663</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2293172557942154</v>
+        <v>0.020132406037541</v>
       </c>
       <c r="J5" t="n">
-        <v>1.375903534765293</v>
+        <v>0.120794436225246</v>
       </c>
       <c r="K5" t="n">
-        <v>12.86504754429878</v>
+        <v>0.569467187069476</v>
       </c>
       <c r="L5" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -710,19 +706,19 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0006, 0008, 0017, 0019, 0022</t>
+          <t>0003, 0010, 0116, 0136, 0139, 0148, 0216, 0246, 0278, 0295, 0441, 0458, 0554, 0557, 0597, 0630, 0798, 0834</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Voltage3.6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight(g)</t>
+          <t>Voltage3.6(V)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -735,25 +731,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.04653117279139</v>
+        <v>3.568194066720924</v>
       </c>
       <c r="G6" t="n">
-        <v>71.0496438272086</v>
+        <v>3.594682856356</v>
       </c>
       <c r="H6" t="n">
-        <v>70.54808749999999</v>
+        <v>3.581438461538462</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1671854424028669</v>
+        <v>0.004414798272512842</v>
       </c>
       <c r="J6" t="n">
-        <v>1.003112654417201</v>
+        <v>0.02648878963507705</v>
       </c>
       <c r="K6" t="n">
-        <v>1.421884972313674</v>
+        <v>0.7396131448171913</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -761,370 +757,6 @@
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Height(mm)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1037</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>70.2311408635473</v>
-      </c>
-      <c r="G7" t="n">
-        <v>70.59030529029886</v>
-      </c>
-      <c r="H7" t="n">
-        <v>70.40962584378013</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.04999748139641888</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2999848883785133</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.4260566432267349</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0139, 0212, 0314</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Width</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Width(mm)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1032</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1014</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>21.14316281178377</v>
-      </c>
-      <c r="G8" t="n">
-        <v>21.28280618046428</v>
-      </c>
-      <c r="H8" t="n">
-        <v>21.21183431952663</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.020132406037541</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.120794436225246</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.569467187069476</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0003, 0010, 0116, 0136, 0139, 0148, 0216, 0246, 0278, 0295, 0441, 0458, 0554, 0557, 0597, 0630, 0798, 0834</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Capacity(Ah)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1017</v>
-      </c>
-      <c r="E9" t="n">
-        <v>23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.92704307749148</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.124965768662364</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.029600589970502</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.02249113011326677</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1349467806796006</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.683051631350156</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0694, 0765, 0813, 0814, 0815, 0816, 0817, 0818, 0819, 0820, 0821, 0822, 0823, 0824, 0825, 0826, 0827, 0828, 0849, 0873, 0880, 0903, 0937</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Initial Voltage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Initial Voltage(V)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.451660422649194</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.462585731196961</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.457114009661836</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.001747474882129852</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.01048484929277911</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.3032832953578151</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0303, 0516, 0665, 0667, 0690</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>100% charge Voltage</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>100% Voltage(V)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D11" t="n">
-        <v>999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>41</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.170219349173374</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.185851804672778</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.177944944944945</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.001660339935276093</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.009962039611656554</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.238443534870176</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0028, 0177, 0183, 0196, 0201, 0217, 0218, 0219, 0220, 0221, 0222, 0223, 0224, 0225, 0226, 0227, 0228, 0231, 0232, 0233, 0234, 0237, 0239, 0240, 0289, 0290, 0291, 0292, 0293, 0294, 0295, 0296, 0297, 0298, 0299, 0300, 0301, 0302, 0303, 0304, 0305</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0% charge Voltage</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0% Voltage(V)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1028</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.879608277717399</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.016305183821062</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.946665369649805</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.01914975000495998</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1148985000297599</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.899272079320461</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0036, 0483, 0694, 0765, 0821, 0841, 0849, 0857, 0873, 0880, 0903, 0937</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>50% charge Voltage</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>50% Voltage(V)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1029</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.581827081343756</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.593276764810092</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.587653061224491</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.001537083824430612</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.00922250294658367</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2570622852655648</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0219, 0222, 0265, 0267, 0270, 0271, 0285, 0288, 0433, 0434, 0812</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1137,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,19 +830,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100% charge ACIR</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100% ACIR(mΩ)</t>
+          <t>Weight(g)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.97905862135774</v>
+        <v>1.421884972313674</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1221,19 +853,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0% charge ACIR</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0% ACIR(mΩ)</t>
+          <t>Height(mm)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12.99126577481458</v>
+        <v>0.4260566432267349</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1244,19 +876,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>50% charge ACIR</t>
+          <t>Diameter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>50% ACIR(mΩ)</t>
+          <t>Diameter(mm)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.86504754429878</v>
+        <v>0.569467187069476</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1267,182 +899,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Voltage3.6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight(g)</t>
+          <t>Voltage3.6(V)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.421884972313674</v>
+        <v>0.7396131448171913</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Height(mm)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4260566432267349</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Width</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Width(mm)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.569467187069476</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Capacity(Ah)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2.683051631350156</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Initial Voltage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Initial Voltage(V)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3032832953578151</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>100% charge Voltage</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>100% Voltage(V)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.238443534870176</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0% charge Voltage</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0% Voltage(V)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3.899272079320461</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>50% charge Voltage</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>50% Voltage(V)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2570622852655648</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>

--- a/Results/LotScreening.xlsx
+++ b/Results/LotScreening.xlsx
@@ -509,92 +509,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Initial ACIR</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Initial ACIR(mΩ)</t>
+          <t>Weight(g)</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1040</v>
       </c>
       <c r="D2" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.53384145344703</v>
+        <v>70.04653117279139</v>
       </c>
       <c r="G2" t="n">
-        <v>12.24196623886066</v>
+        <v>71.0496438272086</v>
       </c>
       <c r="H2" t="n">
-        <v>11.38707410972089</v>
+        <v>70.54808749999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2835647298399308</v>
+        <v>0.1671854424028669</v>
       </c>
       <c r="J2" t="n">
-        <v>1.701388379039585</v>
+        <v>1.003112654417201</v>
       </c>
       <c r="K2" t="n">
-        <v>14.94140077289168</v>
+        <v>1.421884972313674</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0330</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight(g)</t>
+          <t>Height(mm)</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1040</v>
       </c>
       <c r="D3" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>70.04653117279139</v>
+        <v>70.2311408635473</v>
       </c>
       <c r="G3" t="n">
-        <v>71.0496438272086</v>
+        <v>70.59030529029886</v>
       </c>
       <c r="H3" t="n">
-        <v>70.54808749999999</v>
+        <v>70.40962584378013</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1671854424028669</v>
+        <v>0.04999748139641888</v>
       </c>
       <c r="J3" t="n">
-        <v>1.003112654417201</v>
+        <v>0.2999848883785133</v>
       </c>
       <c r="K3" t="n">
-        <v>1.421884972313674</v>
+        <v>0.4260566432267349</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -604,45 +600,49 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0139, 0212, 0314</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Diameter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Height(mm)</t>
+          <t>Diameter(mm)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="D4" t="n">
-        <v>1037</v>
+        <v>1014</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>70.2311408635473</v>
+        <v>21.14316281178377</v>
       </c>
       <c r="G4" t="n">
-        <v>70.59030529029886</v>
+        <v>21.28280618046428</v>
       </c>
       <c r="H4" t="n">
-        <v>70.40962584378013</v>
+        <v>21.21183431952663</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04999748139641888</v>
+        <v>0.020132406037541</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2999848883785133</v>
+        <v>0.120794436225246</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4260566432267349</v>
+        <v>0.569467187069476</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -654,50 +654,50 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0139, 0212, 0314</t>
+          <t>0003, 0010, 0116, 0136, 0139, 0148, 0216, 0246, 0278, 0295, 0441, 0458, 0554, 0557, 0597, 0630, 0798, 0834</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diameter</t>
+          <t>Initial ACIR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diameter(mm)</t>
+          <t>Initial ACIR(mΩ)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="D5" t="n">
-        <v>1014</v>
+        <v>1039</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>21.14316281178377</v>
+        <v>10.53384145344703</v>
       </c>
       <c r="G5" t="n">
-        <v>21.28280618046428</v>
+        <v>12.24196623886066</v>
       </c>
       <c r="H5" t="n">
-        <v>21.21183431952663</v>
+        <v>11.38707410972089</v>
       </c>
       <c r="I5" t="n">
-        <v>0.020132406037541</v>
+        <v>0.2835647298399308</v>
       </c>
       <c r="J5" t="n">
-        <v>0.120794436225246</v>
+        <v>1.701388379039585</v>
       </c>
       <c r="K5" t="n">
-        <v>0.569467187069476</v>
+        <v>14.94140077289168</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0003, 0010, 0116, 0136, 0139, 0148, 0216, 0246, 0278, 0295, 0441, 0458, 0554, 0557, 0597, 0630, 0798, 0834</t>
+          <t>0330</t>
         </is>
       </c>
     </row>
@@ -807,19 +807,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Initial ACIR</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Initial ACIR(mΩ)</t>
+          <t>Weight(g)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.94140077289168</v>
+        <v>1.421884972313674</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -830,16 +830,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight(g)</t>
+          <t>Height(mm)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.421884972313674</v>
+        <v>0.4260566432267349</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -853,16 +853,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Diameter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Height(mm)</t>
+          <t>Diameter(mm)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4260566432267349</v>
+        <v>0.569467187069476</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -876,19 +876,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diameter</t>
+          <t>Initial ACIR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diameter(mm)</t>
+          <t>Initial ACIR(mΩ)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.569467187069476</v>
+        <v>14.94140077289168</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
